--- a/data/studentlist.xlsx
+++ b/data/studentlist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aiden Park\Creative Cloud Files\R test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RWorks\R-PRJ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A862E0-D94B-4F06-AFA3-DA9DFD4784D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="6105"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,42 +127,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>absence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bloodtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,13 +375,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,11 +669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
